--- a/docs/sample/tables/sample_complex.xlsx
+++ b/docs/sample/tables/sample_complex.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F33A4C-EE2F-4D15-B721-82DF03D015C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71026B6-A4BC-47E6-8905-827B47252A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="390" windowWidth="12750" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Define" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,18 +60,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(dev)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>openTimes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,34 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개방 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>startTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,42 +92,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입장 시작 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입장 종료 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 획득 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최초 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클리어 시간 제한. 단위: 초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 아이템 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,34 +108,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계정 경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>delay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보상 획득 시 메시지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지 등장 딜레이. 단위: 초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>daily_stage_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,10 +193,6 @@
   </si>
   <si>
     <t>23:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 경험치. 수식으로 계정 경험치의 1/3 지정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -389,30 +292,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -480,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -498,16 +377,14 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -791,9 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08760434-48FB-43E3-A688-AD17FAC4CA94}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -812,29 +687,29 @@
     <col min="16" max="16" width="27.375" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="5"/>
     <col min="18" max="18" width="13.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D1" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" s="8"/>
       <c r="G1" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H1" s="8"/>
       <c r="J1" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D2" s="7"/>
@@ -843,16 +718,16 @@
       <c r="H2" s="8"/>
       <c r="J2" s="7"/>
       <c r="M2" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="11"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="23"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -862,34 +737,34 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>1</v>
@@ -898,48 +773,48 @@
         <v>3</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>62</v>
+      <c r="E4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>64</v>
+        <v>34</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="J4" s="4">
         <v>1001</v>
@@ -948,16 +823,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="M4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
@@ -965,7 +840,7 @@
       <c r="R4" s="4">
         <v>100</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="22">
         <f>R4 / 3</f>
         <v>33.333333333333336</v>
       </c>
@@ -981,13 +856,13 @@
       <c r="M5" s="3"/>
       <c r="O5" s="16"/>
       <c r="P5" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="5">
         <v>1.5</v>
       </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="25"/>
+      <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3"/>
@@ -1001,70 +876,70 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="5">
         <v>300</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
       <c r="R6" s="3"/>
-      <c r="S6" s="25"/>
+      <c r="S6" s="23"/>
     </row>
-    <row r="7" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21">
+    <row r="7" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="19">
         <v>2001</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <v>10</v>
       </c>
-      <c r="L7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="26"/>
+      <c r="L7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="24"/>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>62</v>
+      <c r="E8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>64</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="J8" s="3">
         <v>1002</v>
@@ -1073,16 +948,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="5">
         <v>0</v>
@@ -1090,7 +965,7 @@
       <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="23">
         <f>R8/3</f>
         <v>33.333333333333336</v>
       </c>
@@ -1106,13 +981,13 @@
       <c r="M9" s="3"/>
       <c r="O9" s="16"/>
       <c r="P9" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="5">
         <v>1.5</v>
       </c>
       <c r="R9" s="3"/>
-      <c r="S9" s="25"/>
+      <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J10" s="3">
@@ -1122,263 +997,41 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N10" s="5">
         <v>300</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="J11" s="21">
+    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="J11" s="19">
         <v>2002</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="18">
         <v>10</v>
       </c>
-      <c r="L11" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="26"/>
+      <c r="L11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="17"/>
-    <col min="5" max="5" width="44.625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>